--- a/template_examples/rna_bam_template.xlsx
+++ b/template_examples/rna_bam_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F321A-93ED-BE4B-BE1B-49BDE2E10DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A88818C-DFC9-6A44-986E-3255545C7C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1120" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RNA" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="69">
   <si>
     <t>#t</t>
   </si>
@@ -881,7 +881,7 @@
   <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -952,16 +952,14 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1070,9 +1068,6 @@
       <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="D12">
-        <v>650</v>
-      </c>
       <c r="E12">
         <v>0.8</v>
       </c>
@@ -2081,7 +2076,7 @@
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B9:H9"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{6AC1EC70-19F6-E146-BE12-67BC1C6823E1}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>

--- a/template_examples/rna_bam_template.xlsx
+++ b/template_examples/rna_bam_template.xlsx
@@ -604,7 +604,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="5" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -644,7 +644,7 @@
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="7" ht="16" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
@@ -769,7 +769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -869,1386 +869,1386 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/rna_bam_template.xlsx
+++ b/template_examples/rna_bam_template.xlsx
@@ -597,7 +597,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -747,7 +747,6 @@
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -2285,7 +2284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2293,6 +2292,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -2579,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2587,6 +2587,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>

--- a/template_examples/rna_bam_template.xlsx
+++ b/template_examples/rna_bam_template.xlsx
@@ -121,7 +121,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -164,7 +164,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">The percentage of fragments &gt; 200 nucleotides.</t>
+          <t xml:space="preserve">The percentage of fragments &gt; 200 nucleotides. (0-1)</t>
         </r>
       </text>
     </comment>
@@ -215,12 +215,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="81">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
   <si>
-    <t xml:space="preserve">Metadata file for rna expression [bam]</t>
+    <t xml:space="preserve">Rna expression [bam] assay template</t>
   </si>
   <si>
     <t xml:space="preserve">#preamble</t>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">Sequencer Model, e.g. HiSeq 2500, NextSeq, NovaSeq.</t>
   </si>
   <si>
-    <t xml:space="preserve">E.g. 'Illumina - HiSeq 2500'</t>
+    <t xml:space="preserve">E.g. 'Adaptive'</t>
   </si>
   <si>
     <t xml:space="preserve">Indicates if the sequencing was performed paired or single ended.</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
   </si>
   <si>
-    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
   </si>
   <si>
     <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">Resulting yield (in ng) from library construction.</t>
   </si>
   <si>
-    <t xml:space="preserve">The percentage of fragments &gt; 200 nucleotides.</t>
+    <t xml:space="preserve">The percentage of fragments &gt; 200 nucleotides. (0-1)</t>
   </si>
   <si>
     <t xml:space="preserve">RNA quality score. (0-10)</t>
@@ -406,13 +406,16 @@
     <t xml:space="preserve">Agilent</t>
   </si>
   <si>
-    <t xml:space="preserve">Illumina - HiSeq 2500</t>
+    <t xml:space="preserve">Adaptive</t>
   </si>
   <si>
     <t xml:space="preserve">Mount Sinai</t>
   </si>
   <si>
     <t xml:space="preserve">Twist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina - HiSeq 2500</t>
   </si>
   <si>
     <t xml:space="preserve">Single</t>
@@ -427,31 +430,34 @@
     <t xml:space="preserve">IDT</t>
   </si>
   <si>
-    <t xml:space="preserve">Illumina - NextSeq 550</t>
-  </si>
-  <si>
     <t xml:space="preserve">MD Anderson</t>
   </si>
   <si>
     <t xml:space="preserve">NEB</t>
   </si>
   <si>
-    <t xml:space="preserve">Illumina - HiSeq 4000</t>
+    <t xml:space="preserve">Illumina - NextSeq 550</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina - TruSeq Stranded PolyA mRNA</t>
   </si>
   <si>
-    <t xml:space="preserve">Illumina - NovaSeq 6000</t>
+    <t xml:space="preserve">Illumina - HiSeq 4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina - TruSeq Stranded mRNA Sample Prep Kit</t>
   </si>
   <si>
-    <t xml:space="preserve">MiSeq</t>
+    <t xml:space="preserve">Illumina - NovaSeq 6000</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina- TruSeq RNA Access Library Prep Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiSeq</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -599,6 +605,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -684,13 +694,13 @@
   </sheetPr>
   <dimension ref="A1:H2010"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -702,7 +712,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -713,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
@@ -724,7 +734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
@@ -735,7 +745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
@@ -744,7 +754,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>2</v>
       </c>
@@ -755,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>2</v>
       </c>
@@ -810,22 +820,23 @@
       <c r="A11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,22 +844,23 @@
       <c r="A12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,22 +868,23 @@
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -879,22 +892,23 @@
       <c r="A14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -902,22 +916,23 @@
       <c r="A15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10906,20 +10921,20 @@
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
+      <formula1>'Data Dictionary'!$C$2:$C$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5" type="list">
+      <formula1>'Data Dictionary'!$D$2:$D$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="list">
       <formula1>"Illumina - HiSeq 2500,Illumina - HiSeq 3000,Illumina - NextSeq 550,Illumina - HiSeq 4000,Illumina - NovaSeq 6000"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7" type="list">
       <formula1>"Paired,Single"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
-      <formula1>'Data Dictionary'!$C$2:$C$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5" type="list">
-      <formula1>'Data Dictionary'!$D$2:$D$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -10942,25 +10957,25 @@
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B11:H15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="4" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -10971,7 +10986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -10985,7 +11000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -10999,7 +11014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -11013,7 +11028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -11027,7 +11042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -11041,7 +11056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
@@ -11146,15 +11161,15 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B11:H15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -11199,24 +11214,24 @@
         <v>65</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11231,6 +11246,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="D6" s="0" t="s">
         <v>74</v>
       </c>
@@ -11239,16 +11257,22 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
